--- a/data/Carahue.xlsx
+++ b/data/Carahue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1906,6 +1906,50 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DIA PRUEBA PRODUCC</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129959119&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Carahue</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
